--- a/docs/BrowserCompatibility.xlsx
+++ b/docs/BrowserCompatibility.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shark\repos\infra-design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shark\repos\sudoor-design\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>FireFox</t>
   </si>
@@ -123,6 +123,54 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jquery1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jquery2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Current - 1) or Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Current - 1) or Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,18 +578,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
@@ -797,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
@@ -820,6 +867,106 @@
       <c r="J9" s="5" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/BrowserCompatibility.xlsx
+++ b/docs/BrowserCompatibility.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>FireFox</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>4.0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsleyjs2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +589,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,16 +929,36 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
